--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>436.5123862880641</v>
+        <v>570.5030999408009</v>
       </c>
       <c r="R2">
-        <v>436.5123862880641</v>
+        <v>5134.527899467208</v>
       </c>
       <c r="S2">
-        <v>0.01710202860674476</v>
+        <v>0.02070125718402391</v>
       </c>
       <c r="T2">
-        <v>0.01710202860674476</v>
+        <v>0.02070125718402392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>910.0806115274005</v>
+        <v>968.5183961020467</v>
       </c>
       <c r="R3">
-        <v>910.0806115274005</v>
+        <v>8716.665564918421</v>
       </c>
       <c r="S3">
-        <v>0.03565586027268924</v>
+        <v>0.03514362745311513</v>
       </c>
       <c r="T3">
-        <v>0.03565586027268924</v>
+        <v>0.03514362745311513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>390.5539819677335</v>
+        <v>416.6072567106144</v>
       </c>
       <c r="R4">
-        <v>390.5539819677335</v>
+        <v>3749.46531039553</v>
       </c>
       <c r="S4">
-        <v>0.01530143377806114</v>
+        <v>0.01511699755319824</v>
       </c>
       <c r="T4">
-        <v>0.01530143377806114</v>
+        <v>0.01511699755319825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>5834.865370961008</v>
+        <v>7291.227203713299</v>
       </c>
       <c r="R5">
-        <v>5834.865370961008</v>
+        <v>65621.04483341968</v>
       </c>
       <c r="S5">
-        <v>0.2286029849902751</v>
+        <v>0.264569236428133</v>
       </c>
       <c r="T5">
-        <v>0.2286029849902751</v>
+        <v>0.264569236428133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>12165.05650650639</v>
+        <v>12378.00053617374</v>
       </c>
       <c r="R6">
-        <v>12165.05650650639</v>
+        <v>111402.0048255637</v>
       </c>
       <c r="S6">
-        <v>0.4766122357857766</v>
+        <v>0.4491477303977974</v>
       </c>
       <c r="T6">
-        <v>0.4766122357857766</v>
+        <v>0.4491477303977975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>5220.538927320629</v>
+        <v>5324.385027369703</v>
       </c>
       <c r="R7">
-        <v>5220.538927320629</v>
+        <v>47919.46524632732</v>
       </c>
       <c r="S7">
-        <v>0.2045344161637213</v>
+        <v>0.1932004643091049</v>
       </c>
       <c r="T7">
-        <v>0.2045344161637213</v>
+        <v>0.193200464309105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>142.3267764382401</v>
+        <v>177.8408341374649</v>
       </c>
       <c r="R8">
-        <v>142.3267764382401</v>
+        <v>1600.567507237184</v>
       </c>
       <c r="S8">
-        <v>0.005576191371912748</v>
+        <v>0.006453126802786908</v>
       </c>
       <c r="T8">
-        <v>0.005576191371912748</v>
+        <v>0.006453126802786912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>296.7357715530167</v>
+        <v>301.9126792792898</v>
       </c>
       <c r="R9">
-        <v>296.7357715530167</v>
+        <v>2717.214113513608</v>
       </c>
       <c r="S9">
-        <v>0.01162574949338369</v>
+        <v>0.01095519379566359</v>
       </c>
       <c r="T9">
-        <v>0.01162574949338369</v>
+        <v>0.01095519379566359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>127.3418373102097</v>
+        <v>129.8674486586044</v>
       </c>
       <c r="R10">
-        <v>127.3418373102097</v>
+        <v>1168.80703792744</v>
       </c>
       <c r="S10">
-        <v>0.004989099537435491</v>
+        <v>0.004712366076176904</v>
       </c>
       <c r="T10">
-        <v>0.004989099537435491</v>
+        <v>0.004712366076176906</v>
       </c>
     </row>
   </sheetData>
